--- a/images/stundenplaene/Stundenpläne_wsco_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_wsco_aktuell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -642,21 +642,108 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,81 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -774,18 +786,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -799,18 +811,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1130,34 +1130,34 @@
       <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="68">
         <v>0.375</v>
       </c>
       <c r="B2" s="3"/>
@@ -1170,14 +1170,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="67"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1188,12 +1188,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="68"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="13"/>
@@ -1211,11 +1211,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1229,11 +1229,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="54">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -1247,7 +1247,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1263,7 +1263,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="54">
         <v>0.5</v>
       </c>
       <c r="B8" s="13"/>
@@ -1281,7 +1281,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -1297,7 +1297,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="54">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="13"/>
@@ -1310,14 +1310,14 @@
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="69"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1328,12 +1328,12 @@
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="70"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="54">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="13"/>
@@ -1346,12 +1346,12 @@
       <c r="I12" s="14"/>
       <c r="J12" s="16"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="70"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1362,12 +1362,12 @@
       <c r="I13" s="18"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="68"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="66">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -1385,7 +1385,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1401,7 +1401,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="54">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -1412,16 +1412,16 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="16"/>
       <c r="M16" s="15"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1430,27 +1430,27 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="17"/>
       <c r="M17" s="12"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="66">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="47" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1"/>
@@ -1459,17 +1459,17 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="55" t="s">
+      <c r="J19" s="48"/>
+      <c r="K19" s="44" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="17"/>
@@ -1477,7 +1477,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="56">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
@@ -1489,13 +1489,13 @@
       <c r="H20" s="25"/>
       <c r="I20" s="19"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="65"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1511,7 +1511,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="54">
         <v>0.79166666666666596</v>
       </c>
       <c r="B22" s="13"/>
@@ -1529,7 +1529,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1545,7 +1545,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="54">
         <v>0.83333333333333304</v>
       </c>
       <c r="B24" s="13"/>
@@ -1554,10 +1554,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -1565,15 +1565,15 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
@@ -1581,7 +1581,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="56">
         <v>0.875</v>
       </c>
       <c r="B26" s="5"/>
@@ -1590,8 +1590,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
@@ -1599,7 +1599,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1616,34 +1616,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="H24:I26"/>
     <mergeCell ref="J16:K17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="L10:M13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
     <oddHeader>&amp;L                 
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                            Stundenplan 2015                                           Wetzikon</oddHeader>
+                                                            Stundenplan 2016                                           Wetzikon</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -1677,34 +1677,34 @@
       <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="54">
         <v>0.45833333333333298</v>
       </c>
       <c r="B2" s="13"/>
@@ -1717,14 +1717,14 @@
       <c r="I2" s="19"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1735,12 +1735,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="72"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="54">
         <v>0.5</v>
       </c>
       <c r="B4" s="13"/>
@@ -1753,14 +1753,14 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1771,12 +1771,12 @@
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="72"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="54">
         <v>0.54166666666666696</v>
       </c>
       <c r="B6" s="13"/>
@@ -1794,7 +1794,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1810,7 +1810,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="54">
         <v>0.58333333333333304</v>
       </c>
       <c r="B8" s="13"/>
@@ -1828,7 +1828,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="17"/>
@@ -1844,7 +1844,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="66">
         <v>0.625</v>
       </c>
       <c r="B10" s="13"/>
@@ -1862,7 +1862,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1878,7 +1878,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="54">
         <v>0.66666666666666596</v>
       </c>
       <c r="B12" s="13"/>
@@ -1896,13 +1896,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
@@ -1914,13 +1914,13 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="66">
         <v>0.70833333333333304</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16"/>
@@ -1932,19 +1932,19 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
@@ -1952,17 +1952,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="56">
         <v>0.75</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="16"/>
       <c r="K16" s="14"/>
       <c r="L16" s="16"/>
@@ -1970,17 +1970,17 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
       <c r="D17" s="11"/>
       <c r="E17" s="18"/>
       <c r="F17" s="25"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="17"/>
@@ -1988,21 +1988,21 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="54">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="14"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="16"/>
@@ -2010,17 +2010,17 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="11"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="55"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="17"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -2028,21 +2028,21 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="54">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="16"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2050,17 +2050,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="43"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -2068,7 +2068,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="56">
         <v>0.875</v>
       </c>
       <c r="B22" s="5"/>
@@ -2077,8 +2077,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="16"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="16"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -2086,15 +2086,15 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="7"/>
       <c r="C23" s="21"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="22"/>
@@ -2103,17 +2103,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A20:A21"/>
@@ -2126,12 +2121,17 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="D13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2139,7 +2139,7 @@
     <oddHeader>&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;9
 &amp;18
-                                                          Stundenplan 2015                                              Rüti</oddHeader>
+                                                          Stundenplan 2016                                              Rüti</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2149,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2163,44 +2163,44 @@
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="66">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2210,13 +2210,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2226,19 +2226,19 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="66">
         <v>0.625</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2248,13 +2248,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2264,13 +2264,13 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="66">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="25"/>
@@ -2284,9 +2284,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="25"/>
@@ -2300,19 +2300,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="66">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2322,13 +2322,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2338,17 +2338,17 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+      <c r="A10" s="90">
         <v>0.75</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="45"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2358,9 +2358,9 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="23"/>
@@ -2374,13 +2374,13 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="66">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
@@ -2394,9 +2394,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="11"/>
@@ -2410,11 +2410,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="66">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2428,7 +2428,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2462,6 +2462,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="F8:G10"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
@@ -2470,19 +2483,6 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="F4:G5"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2490,7 +2490,7 @@
     <oddHeader>&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                                         Stundenplan 2015                                           Tagelswangen</oddHeader>
+                                                                         Stundenplan 2016                                           Tagelswangen</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2524,34 +2524,34 @@
       <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="66">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2569,7 +2569,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -2577,7 +2577,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="43" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="17"/>
@@ -2587,7 +2587,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="66">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2596,10 +2596,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="87"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -2607,14 +2607,14 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="65"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="1"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
@@ -2623,7 +2623,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="56">
         <v>0.75</v>
       </c>
       <c r="B6" s="5"/>
@@ -2632,10 +2632,10 @@
       <c r="E6" s="14"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2643,15 +2643,15 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="7"/>
       <c r="C7" s="21"/>
       <c r="D7" s="8"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="22"/>
@@ -2660,18 +2660,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2679,7 +2679,7 @@
     <oddHeader>&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                                 Stundenplan 2015                                               Hittnau</oddHeader>
+                                                                 Stundenplan 2016                                               Hittnau</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
